--- a/config/project/demo/demo.xlsx
+++ b/config/project/demo/demo.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>组序号</t>
   </si>
@@ -151,22 +151,6 @@
   </si>
   <si>
     <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>eport</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>N</t>
     </r>
     <r>
@@ -180,6 +164,12 @@
       <t>A</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建设备</t>
+  </si>
+  <si>
+    <t>上传报告</t>
   </si>
 </sst>
 </file>
@@ -777,19 +767,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1147,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1189,13 +1179,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="5">
@@ -1212,9 +1202,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="5">
         <v>2</v>
       </c>
@@ -1229,9 +1219,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="5">
         <v>3</v>
       </c>
@@ -1246,9 +1236,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="5">
         <v>4</v>
       </c>
@@ -1263,9 +1253,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="5">
         <v>5</v>
       </c>
@@ -1280,9 +1270,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="5">
         <v>6</v>
       </c>
@@ -1297,9 +1287,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="5">
         <v>7</v>
       </c>
@@ -1314,9 +1304,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="5">
         <v>8</v>
       </c>
@@ -1334,23 +1324,46 @@
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>9</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>37</v>
+      <c r="G10" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="9">
+        <v>10</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/config/project/demo/demo.xlsx
+++ b/config/project/demo/demo.xlsx
@@ -44,15 +44,6 @@
     <t>技术要求</t>
   </si>
   <si>
-    <t>demo2</t>
-  </si>
-  <si>
-    <t>demo3</t>
-  </si>
-  <si>
-    <t>demo4</t>
-  </si>
-  <si>
     <t>demo5</t>
   </si>
   <si>
@@ -116,10 +107,6 @@
   </si>
   <si>
     <t>把充电枪插入汽车7</t>
-  </si>
-  <si>
-    <t>demo1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
@@ -170,6 +157,22 @@
   </si>
   <si>
     <t>上传报告</t>
+  </si>
+  <si>
+    <t>板级</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试人员</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1140,7 +1143,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1183,22 +1186,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1209,13 +1212,13 @@
         <v>2</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1226,13 +1229,13 @@
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1243,13 +1246,13 @@
         <v>4</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1260,13 +1263,13 @@
         <v>5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1277,13 +1280,13 @@
         <v>6</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1294,13 +1297,13 @@
         <v>7</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1311,13 +1314,13 @@
         <v>8</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1325,22 +1328,22 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10" s="9">
         <v>9</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1348,22 +1351,22 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D11" s="9">
         <v>10</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1396,13 +1399,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1410,10 +1413,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1421,10 +1424,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1432,10 +1435,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1443,10 +1446,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1454,10 +1457,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1465,10 +1468,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1476,10 +1479,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/config/project/demo/demo.xlsx
+++ b/config/project/demo/demo.xlsx
@@ -153,9 +153,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>创建设备</t>
-  </si>
-  <si>
     <t>上传报告</t>
   </si>
   <si>
@@ -172,6 +169,10 @@
   </si>
   <si>
     <t>demo4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制盒数据</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1143,7 +1144,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>28</v>
@@ -1212,7 +1213,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>28</v>
@@ -1229,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>28</v>
@@ -1246,7 +1247,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>28</v>
@@ -1337,7 +1338,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>32</v>
@@ -1360,7 +1361,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>32</v>

--- a/config/project/demo/demo.xlsx
+++ b/config/project/demo/demo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5E938FDB-13FB-4D0F-9306-E07D12D883A6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
   <si>
     <t>组序号</t>
   </si>
@@ -175,12 +176,116 @@
     <t>控制盒数据</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>继电器1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器2</t>
+  </si>
+  <si>
+    <t>继电器3</t>
+  </si>
+  <si>
+    <t>继电器4</t>
+  </si>
+  <si>
+    <t>继电器5</t>
+  </si>
+  <si>
+    <t>继电器6</t>
+  </si>
+  <si>
+    <t>继电器7</t>
+  </si>
+  <si>
+    <t>继电器8</t>
+  </si>
+  <si>
+    <t>组名称</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>组测试前继电器操作掩码</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>组测试后继电器操作掩码</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>掩码</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x000000FF</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0x0000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relay</t>
+  </si>
+  <si>
+    <r>
+      <t>0x00000002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000004</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000008</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000010</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000020</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000040</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000080</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -316,6 +421,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="25">
     <fill>
@@ -463,7 +574,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -606,17 +717,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -746,7 +846,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,12 +874,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -788,24 +900,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="4"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="5"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="6"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="8"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="10"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="11"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="12"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="16"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="18"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="标题" xfId="19" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="20" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="21" builtinId="17" customBuiltin="1"/>
@@ -820,12 +932,12 @@
     <cellStyle name="解释性文本" xfId="29" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="30" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="31" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="33"/>
-    <cellStyle name="强调文字颜色 3" xfId="34"/>
-    <cellStyle name="强调文字颜色 4" xfId="35"/>
-    <cellStyle name="强调文字颜色 5" xfId="36"/>
-    <cellStyle name="强调文字颜色 6" xfId="37"/>
+    <cellStyle name="强调文字颜色 1" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="强调文字颜色 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="强调文字颜色 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="强调文字颜色 4" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="强调文字颜色 5" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="强调文字颜色 6" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="适中" xfId="38" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="39" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="40" builtinId="20" customBuiltin="1"/>
@@ -1140,17 +1252,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.08984375" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" customWidth="1"/>
     <col min="5" max="5" width="39.36328125" style="1" customWidth="1"/>
@@ -1183,13 +1295,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="5">
@@ -1206,9 +1318,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="5">
         <v>2</v>
       </c>
@@ -1223,9 +1335,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="5">
         <v>3</v>
       </c>
@@ -1240,9 +1352,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="5">
         <v>4</v>
       </c>
@@ -1257,9 +1369,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="5">
         <v>5</v>
       </c>
@@ -1274,9 +1386,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="5">
         <v>6</v>
       </c>
@@ -1291,9 +1403,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="5">
         <v>7</v>
       </c>
@@ -1308,9 +1420,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="5">
         <v>8</v>
       </c>
@@ -1325,16 +1437,16 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="11">
         <v>2</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="13">
         <v>9</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -1348,16 +1460,16 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="11">
         <v>2</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="13">
         <v>10</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -1367,6 +1479,174 @@
         <v>32</v>
       </c>
       <c r="G11" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="13">
+        <v>11</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="13">
+        <v>12</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="13">
+        <v>13</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="13">
+        <v>14</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="13">
+        <v>15</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="14">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="13">
+        <v>16</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="13">
+        <v>17</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="13">
+        <v>18</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1384,7 +1664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -1498,16 +1778,153 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="30.08984375" customWidth="1"/>
+    <col min="3" max="3" width="30.26953125" customWidth="1"/>
+    <col min="4" max="4" width="23.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config/project/demo/demo.xlsx
+++ b/config/project/demo/demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5E938FDB-13FB-4D0F-9306-E07D12D883A6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{840F2B88-6BB2-4E5F-BE24-A7031E3D7E55}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="78">
   <si>
     <t>组序号</t>
   </si>
@@ -279,6 +279,59 @@
   <si>
     <t>0x00000080</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>OptoCoupler</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>光耦1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>光耦2</t>
+  </si>
+  <si>
+    <t>光耦3</t>
+  </si>
+  <si>
+    <t>光耦4</t>
+  </si>
+  <si>
+    <t>光耦5</t>
+  </si>
+  <si>
+    <t>光耦6</t>
+  </si>
+  <si>
+    <t>光耦7</t>
+  </si>
+  <si>
+    <t>光耦8</t>
+  </si>
+  <si>
+    <t>光耦9</t>
+  </si>
+  <si>
+    <t>光耦10</t>
+  </si>
+  <si>
+    <t>光耦11</t>
+  </si>
+  <si>
+    <t>光耦12</t>
+  </si>
+  <si>
+    <t>光耦13</t>
+  </si>
+  <si>
+    <t>光耦14</t>
+  </si>
+  <si>
+    <t>光耦15</t>
+  </si>
+  <si>
+    <t>光耦16</t>
   </si>
 </sst>
 </file>
@@ -846,7 +899,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -897,6 +950,15 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1253,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1295,13 +1357,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="5">
@@ -1318,9 +1380,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="5">
         <v>2</v>
       </c>
@@ -1335,9 +1397,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="5">
         <v>3</v>
       </c>
@@ -1352,9 +1414,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="5">
         <v>4</v>
       </c>
@@ -1369,9 +1431,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="5">
         <v>5</v>
       </c>
@@ -1386,9 +1448,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="5">
         <v>6</v>
       </c>
@@ -1403,9 +1465,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="5">
         <v>7</v>
       </c>
@@ -1420,9 +1482,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="5">
         <v>8</v>
       </c>
@@ -1647,6 +1709,342 @@
         <v>1</v>
       </c>
       <c r="G19" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="13">
+        <v>19</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="13">
+        <v>20</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="13">
+        <v>21</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="13">
+        <v>22</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="13">
+        <v>23</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="13">
+        <v>24</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="13">
+        <v>25</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="13">
+        <v>26</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="13">
+        <v>27</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="13">
+        <v>28</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="13">
+        <v>29</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="13">
+        <v>30</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="13">
+        <v>31</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="13">
+        <v>32</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="13">
+        <v>33</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="13">
+        <v>34</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="16" t="s">
         <v>32</v>
       </c>
     </row>

--- a/config/project/demo/demo.xlsx
+++ b/config/project/demo/demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{840F2B88-6BB2-4E5F-BE24-A7031E3D7E55}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{ED1E533C-38D6-4A97-B2EB-DB76DD31493E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="93">
   <si>
     <t>组序号</t>
   </si>
@@ -332,6 +332,64 @@
   </si>
   <si>
     <t>光耦16</t>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调3</t>
+  </si>
+  <si>
+    <t>空调4</t>
+  </si>
+  <si>
+    <t>0x0000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0100</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件版本</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>整机状态</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>室外温度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>室内温度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0502</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0503</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>高温告警</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>低温告警</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0600</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0601</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -899,7 +957,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -951,14 +1009,23 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1315,10 +1382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1357,13 +1424,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="22" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="5">
@@ -1380,9 +1447,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="5">
         <v>2</v>
       </c>
@@ -1397,9 +1464,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="5">
         <v>3</v>
       </c>
@@ -1414,9 +1481,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="5">
         <v>4</v>
       </c>
@@ -1431,9 +1498,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="5">
         <v>5</v>
       </c>
@@ -1448,9 +1515,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="5">
         <v>6</v>
       </c>
@@ -1465,9 +1532,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="5">
         <v>7</v>
       </c>
@@ -1482,9 +1549,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="5">
         <v>8</v>
       </c>
@@ -1717,7 +1784,7 @@
       <c r="B20" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D20" s="13">
@@ -1738,7 +1805,7 @@
       <c r="B21" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D21" s="13">
@@ -1759,7 +1826,7 @@
       <c r="B22" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D22" s="13">
@@ -1780,7 +1847,7 @@
       <c r="B23" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="13">
@@ -1801,7 +1868,7 @@
       <c r="B24" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D24" s="13">
@@ -1822,7 +1889,7 @@
       <c r="B25" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D25" s="13">
@@ -1843,7 +1910,7 @@
       <c r="B26" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D26" s="13">
@@ -1864,7 +1931,7 @@
       <c r="B27" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="13">
@@ -1885,7 +1952,7 @@
       <c r="B28" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D28" s="13">
@@ -1906,7 +1973,7 @@
       <c r="B29" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D29" s="13">
@@ -1927,7 +1994,7 @@
       <c r="B30" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D30" s="13">
@@ -1948,7 +2015,7 @@
       <c r="B31" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D31" s="13">
@@ -1969,7 +2036,7 @@
       <c r="B32" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D32" s="13">
@@ -1990,7 +2057,7 @@
       <c r="B33" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D33" s="13">
@@ -2011,7 +2078,7 @@
       <c r="B34" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D34" s="13">
@@ -2032,7 +2099,7 @@
       <c r="B35" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D35" s="13">
@@ -2045,6 +2112,132 @@
         <v>32</v>
       </c>
       <c r="G35" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="13">
+        <v>35</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="13">
+        <v>36</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="13">
+        <v>37</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="13">
+        <v>38</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="13">
+        <v>39</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="13">
+        <v>40</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" s="20" t="s">
         <v>32</v>
       </c>
     </row>

--- a/config/project/demo/demo.xlsx
+++ b/config/project/demo/demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{ED1E533C-38D6-4A97-B2EB-DB76DD31493E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2163C236-66DF-42E9-8153-4E8C98BAE78B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="109">
   <si>
     <t>组序号</t>
   </si>
@@ -218,26 +218,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>0x000000FF</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0x0000000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Relay</t>
   </si>
   <si>
@@ -389,6 +369,70 @@
   </si>
   <si>
     <t>0x0601</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0000FFFF</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器9</t>
+  </si>
+  <si>
+    <t>继电器10</t>
+  </si>
+  <si>
+    <t>继电器11</t>
+  </si>
+  <si>
+    <t>继电器12</t>
+  </si>
+  <si>
+    <t>继电器13</t>
+  </si>
+  <si>
+    <t>继电器14</t>
+  </si>
+  <si>
+    <t>继电器15</t>
+  </si>
+  <si>
+    <t>继电器16</t>
+  </si>
+  <si>
+    <t>0x00000100</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000200</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000400</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000800</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00001000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00002000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00004000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00008000</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -957,7 +1001,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1016,6 +1060,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1384,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1424,13 +1471,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="5">
@@ -1447,9 +1494,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="5">
         <v>2</v>
       </c>
@@ -1464,9 +1511,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="5">
         <v>3</v>
       </c>
@@ -1481,9 +1528,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="5">
         <v>4</v>
       </c>
@@ -1498,9 +1545,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="5">
         <v>5</v>
       </c>
@@ -1515,9 +1562,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="5">
         <v>6</v>
       </c>
@@ -1532,9 +1579,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="5">
         <v>7</v>
       </c>
@@ -1549,9 +1596,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="5">
         <v>8</v>
       </c>
@@ -1617,12 +1664,12 @@
         <v>39</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="13">
         <v>11</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="21" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="10">
@@ -1638,7 +1685,7 @@
         <v>40</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" s="13">
         <v>12</v>
@@ -1659,7 +1706,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" s="13">
         <v>13</v>
@@ -1680,7 +1727,7 @@
         <v>42</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="13">
         <v>14</v>
@@ -1701,7 +1748,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D16" s="13">
         <v>15</v>
@@ -1722,7 +1769,7 @@
         <v>44</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="13">
         <v>16</v>
@@ -1743,7 +1790,7 @@
         <v>45</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="13">
         <v>17</v>
@@ -1764,7 +1811,7 @@
         <v>46</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19" s="13">
         <v>18</v>
@@ -1782,16 +1829,16 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="13">
         <v>19</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>32</v>
@@ -1803,16 +1850,16 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="13">
         <v>20</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>32</v>
@@ -1824,16 +1871,16 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" s="13">
         <v>21</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>32</v>
@@ -1845,16 +1892,16 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23" s="13">
         <v>22</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>32</v>
@@ -1866,16 +1913,16 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D24" s="13">
         <v>23</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>32</v>
@@ -1887,16 +1934,16 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" s="13">
         <v>24</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>32</v>
@@ -1908,16 +1955,16 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D26" s="13">
         <v>25</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>32</v>
@@ -1929,16 +1976,16 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D27" s="13">
         <v>26</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>32</v>
@@ -1950,16 +1997,16 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D28" s="13">
         <v>27</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>32</v>
@@ -1971,16 +2018,16 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D29" s="13">
         <v>28</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>32</v>
@@ -1992,16 +2039,16 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D30" s="13">
         <v>29</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>32</v>
@@ -2013,16 +2060,16 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D31" s="13">
         <v>30</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>32</v>
@@ -2034,16 +2081,16 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D32" s="13">
         <v>31</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>32</v>
@@ -2055,16 +2102,16 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D33" s="13">
         <v>32</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>32</v>
@@ -2076,16 +2123,16 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D34" s="13">
         <v>33</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>32</v>
@@ -2097,16 +2144,16 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D35" s="13">
         <v>34</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>32</v>
@@ -2118,19 +2165,19 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D36" s="13">
         <v>35</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>32</v>
@@ -2139,19 +2186,19 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D37" s="13">
         <v>36</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G37" s="20" t="s">
         <v>32</v>
@@ -2160,19 +2207,19 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D38" s="13">
         <v>37</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G38" s="20" t="s">
         <v>32</v>
@@ -2181,19 +2228,19 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D39" s="13">
         <v>38</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G39" s="20" t="s">
         <v>32</v>
@@ -2202,19 +2249,19 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D40" s="13">
         <v>39</v>
       </c>
       <c r="E40" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="20" t="s">
         <v>89</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>91</v>
       </c>
       <c r="G40" s="20" t="s">
         <v>32</v>
@@ -2223,19 +2270,19 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D41" s="13">
         <v>40</v>
       </c>
       <c r="E41" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="20" t="s">
         <v>90</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>92</v>
       </c>
       <c r="G41" s="20" t="s">
         <v>32</v>
@@ -2370,10 +2417,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2406,13 +2453,13 @@
         <v>39</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2420,13 +2467,13 @@
         <v>40</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2434,13 +2481,13 @@
         <v>41</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2448,13 +2495,13 @@
         <v>42</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2462,13 +2509,13 @@
         <v>43</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2476,13 +2523,13 @@
         <v>44</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2490,13 +2537,13 @@
         <v>45</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2504,13 +2551,125 @@
         <v>46</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>51</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/config/project/demo/demo.xlsx
+++ b/config/project/demo/demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2163C236-66DF-42E9-8153-4E8C98BAE78B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2C15B4B3-949D-491A-9516-8BEAEB5E4531}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="134">
   <si>
     <t>组序号</t>
   </si>
@@ -115,10 +115,6 @@
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>demoGroup2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -318,12 +314,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>空调3</t>
-  </si>
-  <si>
-    <t>空调4</t>
-  </si>
-  <si>
     <t>0x0000</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -433,6 +423,176 @@
   </si>
   <si>
     <t>0x00008000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>内温感失效</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>内风机故障</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>外风机故障</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0609</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x060C</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x060D</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>制冷点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>制冷回差</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>高温点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>低温点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>内风机停止点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0700</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x0710</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x0706</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x0707</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x070A</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0802</t>
+  </si>
+  <si>
+    <t>远程自测</t>
+  </si>
+  <si>
+    <t>远程自测</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +600,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -578,6 +738,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1001,7 +1168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1059,6 +1226,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1066,6 +1239,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1429,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B10" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1471,20 +1659,20 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>28</v>
@@ -1494,14 +1682,14 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="5">
         <v>2</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>28</v>
@@ -1511,14 +1699,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="5">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>28</v>
@@ -1528,14 +1716,14 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="5">
         <v>4</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>28</v>
@@ -1545,9 +1733,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="5">
         <v>5</v>
       </c>
@@ -1562,9 +1750,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="5">
         <v>6</v>
       </c>
@@ -1579,9 +1767,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="5">
         <v>7</v>
       </c>
@@ -1596,9 +1784,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="5">
         <v>8</v>
       </c>
@@ -1616,676 +1804,865 @@
       <c r="A10" s="11">
         <v>2</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="D10" s="13">
         <v>9</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>2</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="D11" s="13">
         <v>10</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="13">
         <v>11</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>39</v>
+      <c r="E12" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="F12" s="10">
         <v>1</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="13">
         <v>12</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="14">
         <v>1</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="13">
         <v>13</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="14">
         <v>1</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="13">
         <v>14</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="14">
         <v>1</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="13">
         <v>15</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="14">
         <v>1</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="13">
         <v>16</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="14">
         <v>1</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="13">
         <v>17</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="14">
         <v>1</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="13">
         <v>18</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="14">
         <v>1</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="13">
         <v>19</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="13">
         <v>20</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="13">
         <v>21</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="13">
         <v>22</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" s="13">
         <v>23</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="13">
         <v>24</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" s="13">
         <v>25</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" s="13">
         <v>26</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="13">
         <v>27</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="13">
         <v>28</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="13">
         <v>29</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31" s="13">
         <v>30</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32" s="13">
         <v>31</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" s="13">
         <v>32</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" s="13">
         <v>33</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" s="13">
         <v>34</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="20" t="s">
-        <v>81</v>
+      <c r="B36" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D36" s="13">
         <v>35</v>
       </c>
-      <c r="E36" s="20" t="s">
-        <v>81</v>
+      <c r="E36" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>32</v>
+        <v>76</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="20" t="s">
-        <v>82</v>
+      <c r="B37" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D37" s="13">
         <v>36</v>
       </c>
-      <c r="E37" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>32</v>
+      <c r="E37" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
-      <c r="B38" s="20" t="s">
-        <v>83</v>
+      <c r="B38" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38" s="13">
         <v>37</v>
       </c>
-      <c r="E38" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>32</v>
+      <c r="E38" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
-      <c r="B39" s="20" t="s">
-        <v>84</v>
+      <c r="B39" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D39" s="13">
         <v>38</v>
       </c>
-      <c r="E39" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>32</v>
+      <c r="E39" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="20" t="s">
-        <v>87</v>
+      <c r="B40" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D40" s="13">
         <v>39</v>
       </c>
-      <c r="E40" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>32</v>
+      <c r="E40" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="20" t="s">
-        <v>88</v>
+      <c r="B41" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" s="13">
         <v>40</v>
       </c>
-      <c r="E41" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>32</v>
+      <c r="E41" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="13">
+        <v>41</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="13">
+        <v>42</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="13">
+        <v>43</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="13">
+        <v>44</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G45" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="13">
+        <v>45</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="13">
+        <v>46</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="13">
+        <v>47</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="13">
+        <v>48</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="13">
+        <v>49</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2433,16 +2810,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" t="s">
         <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
@@ -2450,226 +2827,226 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/config/project/demo/demo.xlsx
+++ b/config/project/demo/demo.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2C15B4B3-949D-491A-9516-8BEAEB5E4531}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2587EFE4-9115-4798-9F18-EDC63FBA4349}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
     <sheet name="提示" sheetId="37" r:id="rId2"/>
     <sheet name="继电器" sheetId="63" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="147">
   <si>
     <t>组序号</t>
   </si>
@@ -593,6 +593,92 @@
   </si>
   <si>
     <t>远程自测</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>上电</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>断电</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>反接告警</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘告警</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘故障</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电负载</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00003001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00003015</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000801</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000401</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0x0000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>001</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -611,12 +697,14 @@
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -624,23 +712,27 @@
       <sz val="18"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -648,6 +740,7 @@
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -655,18 +748,21 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -674,6 +770,7 @@
       <sz val="11"/>
       <color indexed="23"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -681,6 +778,7 @@
       <sz val="15"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -688,6 +786,7 @@
       <sz val="11"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -695,6 +794,7 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -702,6 +802,7 @@
       <sz val="13"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -709,24 +810,28 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1168,7 +1273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1241,26 +1346,50 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1617,10 +1746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B11"/>
+    <sheetView topLeftCell="A46" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1659,13 +1788,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="37" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="5">
@@ -1682,9 +1811,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="5">
         <v>2</v>
       </c>
@@ -1699,9 +1828,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="5">
         <v>3</v>
       </c>
@@ -1716,9 +1845,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="5">
         <v>4</v>
       </c>
@@ -1733,9 +1862,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="5">
         <v>5</v>
       </c>
@@ -1750,9 +1879,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="5">
         <v>6</v>
       </c>
@@ -1767,9 +1896,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="5">
         <v>7</v>
       </c>
@@ -1784,9 +1913,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="5">
         <v>8</v>
       </c>
@@ -1804,7 +1933,7 @@
       <c r="A10" s="11">
         <v>2</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -1827,7 +1956,7 @@
       <c r="A11" s="11">
         <v>2</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="25" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -2367,7 +2496,7 @@
       <c r="F36" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G36" s="26" t="s">
+      <c r="G36" s="24" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2388,7 +2517,7 @@
       <c r="F37" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="24" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2409,7 +2538,7 @@
       <c r="F38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="G38" s="24" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2430,7 +2559,7 @@
       <c r="F39" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2451,7 +2580,7 @@
       <c r="F40" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G40" s="26" t="s">
+      <c r="G40" s="24" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2472,7 +2601,7 @@
       <c r="F41" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="G41" s="26" t="s">
+      <c r="G41" s="24" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2493,7 +2622,7 @@
       <c r="F42" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="G42" s="26" t="s">
+      <c r="G42" s="24" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2514,7 +2643,7 @@
       <c r="F43" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="G43" s="26" t="s">
+      <c r="G43" s="24" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2535,7 +2664,7 @@
       <c r="F44" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="G44" s="26" t="s">
+      <c r="G44" s="24" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2556,7 +2685,7 @@
       <c r="F45" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="G45" s="26" t="s">
+      <c r="G45" s="24" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2577,7 +2706,7 @@
       <c r="F46" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G46" s="26" t="s">
+      <c r="G46" s="24" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2598,7 +2727,7 @@
       <c r="F47" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="G47" s="26" t="s">
+      <c r="G47" s="24" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2619,7 +2748,7 @@
       <c r="F48" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="G48" s="26" t="s">
+      <c r="G48" s="24" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2640,29 +2769,155 @@
       <c r="F49" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="G49" s="26" t="s">
+      <c r="G49" s="24" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="24" t="s">
+      <c r="A50" s="29"/>
+      <c r="B50" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="32">
         <v>49</v>
       </c>
-      <c r="E50" s="25" t="s">
+      <c r="E50" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="F50" s="28" t="s">
+      <c r="F50" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="G50" s="26" t="s">
+      <c r="G50" s="34" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="13">
+        <v>50</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="G51" s="27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="13">
+        <v>51</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="13">
+        <v>52</v>
+      </c>
+      <c r="E53" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="G53" s="27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="13">
+        <v>53</v>
+      </c>
+      <c r="E54" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="13">
+        <v>54</v>
+      </c>
+      <c r="E55" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="13">
+        <v>55</v>
+      </c>
+      <c r="E56" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="G56" s="27" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2794,10 +3049,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3049,6 +3304,90 @@
         <v>88</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/project/demo/demo.xlsx
+++ b/config/project/demo/demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2587EFE4-9115-4798-9F18-EDC63FBA4349}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E818A53A-FE16-4026-9188-7F8722192AAA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="151">
   <si>
     <t>组序号</t>
   </si>
@@ -679,6 +679,22 @@
       </rPr>
       <t>001</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>电表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>meter</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>电表测试</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1273,7 +1289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1385,11 +1401,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1746,10 +1765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1788,13 +1807,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="36">
+      <c r="A2" s="38">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="39" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="5">
@@ -1811,9 +1830,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="5">
         <v>2</v>
       </c>
@@ -1828,9 +1847,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="5">
         <v>3</v>
       </c>
@@ -1845,9 +1864,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="5">
         <v>4</v>
       </c>
@@ -1862,9 +1881,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="5">
         <v>5</v>
       </c>
@@ -1879,9 +1898,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="5">
         <v>6</v>
       </c>
@@ -1896,9 +1915,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="5">
         <v>7</v>
       </c>
@@ -1913,9 +1932,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="5">
         <v>8</v>
       </c>
@@ -2918,6 +2937,27 @@
       </c>
       <c r="G56" s="27" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="36">
+        <v>56</v>
+      </c>
+      <c r="E57" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="F57" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="G57" s="36" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3051,7 +3091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -3378,10 +3418,10 @@
       <c r="A23" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="37" t="s">
         <v>146</v>
       </c>
       <c r="D23" s="8" t="s">

--- a/config/project/demo/demo.xlsx
+++ b/config/project/demo/demo.xlsx
@@ -574,9 +574,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -598,17 +598,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -619,48 +621,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="20"/>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -674,21 +643,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
+      <sz val="11"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -702,26 +682,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -741,31 +741,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="52"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,19 +795,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,13 +813,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,19 +831,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="36"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,19 +861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,21 +910,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="22"/>
       </left>
       <right style="thin">
@@ -942,8 +927,56 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,33 +998,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="62"/>
       </top>
@@ -1001,17 +1007,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,152 +1020,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1230,9 +1230,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1554,10 +1551,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2614,7 +2611,7 @@
       <c r="C50" t="s">
         <v>86</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D50" s="6">
         <v>49</v>
       </c>
       <c r="E50" s="6" t="s">
@@ -2624,6 +2621,26 @@
         <v>9</v>
       </c>
       <c r="G50" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" s="6">
+        <v>49</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="9" t="s">
         <v>9</v>
       </c>
     </row>
